--- a/alu-4/Codierung.xlsx
+++ b/alu-4/Codierung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Dropbox\Uni\3. Semester\ES\Flexible ALU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Documents\LogicWorksLib\alu-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="2" bestFit="1" customWidth="1"/>
@@ -397,7 +397,7 @@
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -428,7 +428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -497,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
